--- a/lstm_automat_results/automat_lstm_log_results.xlsx
+++ b/lstm_automat_results/automat_lstm_log_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\automat_lstm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmeedu-my.sharepoint.com/personal/olah_bence_edu_bme_hu/Documents/BME/MSc/Diplomatéma/StockMarketSentimentAnalysis/lstm_automat_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F24978F8-8BC2-4F08-B443-C3F6CA3B7BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:40009_{F24978F8-8BC2-4F08-B443-C3F6CA3B7BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{622446AD-BFF1-477E-9108-EA8199A0B15F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="automat_lstm_log" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,14 +805,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - 1. jelölőszín" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -864,9 +864,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -886,6 +883,9 @@
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -900,11 +900,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Táblázat1" displayName="Táblázat1" ref="A1:K205" totalsRowShown="0">
-  <autoFilter ref="A1:K205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Táblázat1" displayName="Táblázat1" ref="A1:K205" totalsRowShown="0">
+  <autoFilter ref="A1:K205" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="9">
       <filters>
-        <filter val="True"/>
+        <filter val="False"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -912,38 +912,38 @@
     <sortCondition descending="1" ref="C1:C205"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="Model"/>
-    <tableColumn id="2" name="Epoch"/>
-    <tableColumn id="3" name="Accuraccy"/>
-    <tableColumn id="4" name="Batch size"/>
-    <tableColumn id="5" name="LR start"/>
-    <tableColumn id="6" name="LR end"/>
-    <tableColumn id="7" name="Dropout"/>
-    <tableColumn id="8" name="Architecture"/>
-    <tableColumn id="9" name="Activition function"/>
-    <tableColumn id="10" name="Biderictional"/>
-    <tableColumn id="12" name="Score" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Model"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Epoch"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Accuraccy"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Batch size"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LR start"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="LR end"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Dropout"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Architecture"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Activition function"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Biderictional"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Score" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Táblázat2" displayName="Táblázat2" ref="A1:L52" totalsRowShown="0">
-  <autoFilter ref="A1:L52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Táblázat2" displayName="Táblázat2" ref="A1:L52" totalsRowShown="0">
+  <autoFilter ref="A1:L52" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Type"/>
-    <tableColumn id="2" name="Model"/>
-    <tableColumn id="3" name="Epoch"/>
-    <tableColumn id="4" name="Accuraccy" dataDxfId="2" dataCellStyle="Százalék"/>
-    <tableColumn id="5" name="Batch size"/>
-    <tableColumn id="6" name="LR start"/>
-    <tableColumn id="7" name="LR end"/>
-    <tableColumn id="8" name="Dropout"/>
-    <tableColumn id="9" name="Architecture"/>
-    <tableColumn id="10" name="Activition function"/>
-    <tableColumn id="11" name="Biderictional" dataDxfId="1"/>
-    <tableColumn id="12" name="Score"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Model"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Epoch"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Accuraccy" dataDxfId="1" dataCellStyle="Százalék"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Batch size"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="LR start"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="LR end"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Dropout"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Architecture"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Activition function"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Biderictional" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Score"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,11 +1245,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="A3:K3"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K89" sqref="A89:K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>117.546477417302</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>174.93288804071199</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>209.35311307251899</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>98.084486323155204</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>139.61033913803999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>157.78090211513901</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>56</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>117.239603212468</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>55</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>119.144153546437</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>96.463700699745502</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>115</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>124.862277353689</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>165.02153904261999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>85</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>173.37712706743</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>42</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>4725.3288804071199</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>139.17944895038099</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>67</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>83.753955947837099</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>102.219286736641</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>49</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>111.303325779262</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>27</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>115.40735329198399</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>221.85599554707301</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>61</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>93.268686386768394</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>34</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>109.207478530534</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>121.473898695928</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>74</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>161.015774093511</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>78</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>455.30590012722598</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>125</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>141</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>149</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>157</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>165</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>173</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>181</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>189</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>133</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>510.49522900763299</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>41</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>89.546527115139895</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>52</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>127.36052798982099</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>168.44042223282401</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>91</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>167.40684637404499</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>76</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>279.67654659669199</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>196</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>517.76093352417297</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>96</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>623.76323950381595</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>47</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>103.630784828244</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>104.62404580152599</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>73</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>131.703900286259</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>59</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>154.085351065521</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>157.664519720101</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>116</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>999.828323791348</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>92</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>83.528973839058494</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>85.775276319974495</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>31</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>104.239682729007</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>29</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>105.04894243002499</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>121.910881838422</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>58</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>125.48295364185699</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>39</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>121.993718193384</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>129.95834327290001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>121</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>143.12948274491001</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>144.50184875954099</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>103</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>172.145773695928</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>102</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>298.31788724554701</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>237.10174141221299</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>43</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>83.927461036895593</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>89.159957458651405</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>88</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>95.102417302798898</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>54</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>99.260744672391795</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>140.32479524491001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>48</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>166.73499125318</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>123</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>148.42284907760799</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>69</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>223.85273536895599</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>107</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>402.53995706106798</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>127</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>143</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>151</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>159</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>167</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>175</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>183</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>191</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>135</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>425.14778148854901</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>700.76598282442706</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>142</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>150</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>158</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>166</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>174</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>182</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>190</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>126</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>134</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>1168.1222169211101</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>24</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>80.171144441793899</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>65</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>97.012643129770893</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>145.783426765267</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>112</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>174.44455709287499</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>71</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>210.10919608778599</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>122</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>316.49012006997401</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>104</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>450.24503021628499</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>198</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>495.93416030534303</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>118</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>693.49538804071199</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>33</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>82.8259631440839</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>45</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>91.474286339058494</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>44</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>98.974733619592797</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>93</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>93.2607546119592</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>81</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>114.10404739185699</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>155.180095022264</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>79</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>181.74027910305301</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>83</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>206.095936704834</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>201</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>221.80230200381601</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>100</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>356.28781011450297</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>98</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>552.91718352417297</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>137</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>145</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>138</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>146</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>154</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>153</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>162</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>170</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>178</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>161</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>186</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>194</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>130</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1339.84398854961</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>169</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>136</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>144</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>177</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>152</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>160</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>168</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>185</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>193</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>176</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>184</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>192</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>129</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>1043.7179548346001</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>128</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>1402.51399491094</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>26</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>123.35006162531801</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>37</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>112.75539718511401</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>40</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>128.30839495865101</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>18</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>135.98649212786199</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>89</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>130.84735806297701</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>199</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>143.09017175572501</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>80</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>180.18392175572501</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>28</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>184.06635655216201</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>110</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>221.44976542620799</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>111</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>193.965927162849</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>68</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>304.00489026717503</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>105</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>282.66263120229002</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>202</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>368.64547550890501</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>63</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>86.745616650763296</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>46</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>93.726463104325703</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>25</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>91.208104723282403</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>32</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>108.18765903307801</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>12</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>112.77076375636101</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>64</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>140.490308921755</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>17</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>134.399113390585</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>101</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>142.39804985686999</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>62</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>175.91034510178099</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>87</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>167.520614662849</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>82</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>186.56583969465601</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>97</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>227.90933126590301</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>70</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>303.44209208015201</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>195</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>131</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>139</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>147</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>155</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>163</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>171</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>179</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>187</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>447.42044370229002</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>35</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>85.383836275445205</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>113</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>87.295493400127199</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>100.744026319974</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>38</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>143.99731631679299</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>99</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>151.32109772582601</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>86</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>470.73000159033001</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>72</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>172.90100190839601</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>119</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>267.45998330152599</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>106</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>523.77759223918497</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>75</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>102.909480359414</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>114</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>134.02012762404499</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>124</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>140</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>148</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>156</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>164</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>172</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>180</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>132</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>711.41937022900697</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>197</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>555.62241571246796</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>66</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>91.194427878498701</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>203</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>93.274779341602994</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>77</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>133.018845419847</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>13</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>142.110050890585</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>108</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>274.86235687022901</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>120</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>344.77930184478299</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>200</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>387.31174459287502</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>53</v>
       </c>
@@ -8234,7 +8234,7 @@
         <v>119.57714098282401</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>90</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>189.77590251272201</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>60</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>118.271996262722</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>84</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>183.32971533078799</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>117</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>315.40223441475803</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>109</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>110.27448115458</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>30</v>
       </c>
@@ -8454,7 +8454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8471,10 +8471,10 @@
       <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -8530,7 +8530,7 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8544,7 +8544,7 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8558,7 +8558,7 @@
       <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8572,7 +8572,7 @@
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -8584,7 +8584,7 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8596,7 +8596,7 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8610,7 +8610,7 @@
       <c r="C12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
       <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8638,7 +8638,7 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8650,7 +8650,7 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8662,7 +8662,7 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8676,7 +8676,7 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8690,7 +8690,7 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8724,11 +8724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="L39" sqref="B39:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8785,40 +8785,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>24</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>44</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.47837150127226402</v>
       </c>
-      <c r="E2" s="5">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="E2" s="4">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>223</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4">
         <v>80.171144441793899</v>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
       <c r="C3">
         <v>44</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.47837150127226402</v>
       </c>
       <c r="E3">
@@ -8870,7 +8870,7 @@
       <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.48346055979643698</v>
       </c>
       <c r="E4">
@@ -8908,7 +8908,7 @@
       <c r="C5">
         <v>41</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.46055979643765899</v>
       </c>
       <c r="E5">
@@ -8946,7 +8946,7 @@
       <c r="C6">
         <v>51</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.48346055979643698</v>
       </c>
       <c r="E6">
@@ -8984,7 +8984,7 @@
       <c r="C7">
         <v>50</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.46819338422391799</v>
       </c>
       <c r="E7">
@@ -9022,7 +9022,7 @@
       <c r="C8">
         <v>48</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.48600508905852402</v>
       </c>
       <c r="E8">
@@ -9060,7 +9060,7 @@
       <c r="C9">
         <v>40</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.480916030534351</v>
       </c>
       <c r="E9">
@@ -9098,7 +9098,7 @@
       <c r="C10">
         <v>48</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.47073791348600502</v>
       </c>
       <c r="E10">
@@ -9136,7 +9136,7 @@
       <c r="C11">
         <v>50</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.48346055979643698</v>
       </c>
       <c r="E11">
@@ -9174,7 +9174,7 @@
       <c r="C12">
         <v>44</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>0.47837150127226402</v>
       </c>
       <c r="E12">
@@ -9212,7 +9212,7 @@
       <c r="C13">
         <v>47</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>0.48346055979643698</v>
       </c>
       <c r="E13">
@@ -9250,7 +9250,7 @@
       <c r="C14">
         <v>40</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0.47582697201017798</v>
       </c>
       <c r="E14">
@@ -9326,7 +9326,7 @@
       <c r="C16">
         <v>36</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>0.480916030534351</v>
       </c>
       <c r="E16">
@@ -9364,7 +9364,7 @@
       <c r="C17">
         <v>34</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>0.46819338422391799</v>
       </c>
       <c r="E17">
@@ -9402,7 +9402,7 @@
       <c r="C18">
         <v>50</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>0.49363867684478302</v>
       </c>
       <c r="E18">
@@ -9440,7 +9440,7 @@
       <c r="C19">
         <v>43</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>0.480916030534351</v>
       </c>
       <c r="E19">
@@ -9478,7 +9478,7 @@
       <c r="C20">
         <v>49</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>0.50127226463104302</v>
       </c>
       <c r="E20">
@@ -9516,7 +9516,7 @@
       <c r="C21">
         <v>41</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>0.47073791348600502</v>
       </c>
       <c r="E21">
@@ -9592,7 +9592,7 @@
       <c r="C23">
         <v>44</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>0.47837150127226402</v>
       </c>
       <c r="E23">
@@ -9630,7 +9630,7 @@
       <c r="C24">
         <v>37</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>0.49363867684478302</v>
       </c>
       <c r="E24">
@@ -9735,40 +9735,40 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>36</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>49</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>0.52417302798982102</v>
       </c>
-      <c r="E28" s="5">
-        <v>32</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="G28" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="E28" s="4">
+        <v>32</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>321</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="J28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4">
         <v>117.546477417302</v>
       </c>
     </row>
@@ -9782,7 +9782,7 @@
       <c r="C29">
         <v>49</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>0.52417302798982102</v>
       </c>
       <c r="E29">
@@ -9820,7 +9820,7 @@
       <c r="C30">
         <v>50</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>0.49872773536895598</v>
       </c>
       <c r="E30">
@@ -9858,7 +9858,7 @@
       <c r="C31">
         <v>44</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>0.49109414758269698</v>
       </c>
       <c r="E31">
@@ -9896,7 +9896,7 @@
       <c r="C32">
         <v>50</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>0.51399491094147498</v>
       </c>
       <c r="E32">
@@ -9934,7 +9934,7 @@
       <c r="C33">
         <v>46</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>0.49872773536895598</v>
       </c>
       <c r="E33">
@@ -9972,7 +9972,7 @@
       <c r="C34">
         <v>51</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>0.50381679389312894</v>
       </c>
       <c r="E34">
@@ -10010,7 +10010,7 @@
       <c r="C35">
         <v>49</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>0.50381679389312894</v>
       </c>
       <c r="E35">
@@ -10048,7 +10048,7 @@
       <c r="C36">
         <v>44</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>0.49872773536895598</v>
       </c>
       <c r="E36">
@@ -10086,7 +10086,7 @@
       <c r="C37">
         <v>44</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>0.50381679389312894</v>
       </c>
       <c r="E37">
@@ -10124,7 +10124,7 @@
       <c r="C38">
         <v>50</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>0.49872773536895598</v>
       </c>
       <c r="E38">
@@ -10162,7 +10162,7 @@
       <c r="C39">
         <v>44</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>0.49109414758269698</v>
       </c>
       <c r="E39">
@@ -10238,7 +10238,7 @@
       <c r="C41">
         <v>49</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>0.52417302798982102</v>
       </c>
       <c r="E41">
@@ -10276,7 +10276,7 @@
       <c r="C42">
         <v>51</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>0.49872773536895598</v>
       </c>
       <c r="E42">
@@ -10314,7 +10314,7 @@
       <c r="C43">
         <v>34</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>0.49872773536895598</v>
       </c>
       <c r="E43">
@@ -10352,7 +10352,7 @@
       <c r="C44">
         <v>28</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>0.51399491094147498</v>
       </c>
       <c r="E44">
@@ -10390,7 +10390,7 @@
       <c r="C45">
         <v>28</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>0.50127226463104302</v>
       </c>
       <c r="E45">
@@ -10428,7 +10428,7 @@
       <c r="C46">
         <v>49</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>0.50127226463104302</v>
       </c>
       <c r="E46">
@@ -10466,7 +10466,7 @@
       <c r="C47">
         <v>41</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>0.49109414758269698</v>
       </c>
       <c r="E47">
@@ -10504,7 +10504,7 @@
       <c r="C48">
         <v>37</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>0.49363867684478302</v>
       </c>
       <c r="E48">
@@ -10542,7 +10542,7 @@
       <c r="C49">
         <v>49</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>0.52417302798982102</v>
       </c>
       <c r="E49">
@@ -10580,7 +10580,7 @@
       <c r="C50">
         <v>28</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>0.51399491094147498</v>
       </c>
       <c r="E50">
@@ -10618,7 +10618,7 @@
       <c r="C51">
         <v>49</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>0.52417302798982102</v>
       </c>
       <c r="E51">
